--- a/misc/11-603.xlsx
+++ b/misc/11-603.xlsx
@@ -111,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -137,6 +137,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -182,13 +189,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -204,6 +215,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -215,7 +286,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.95" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -254,7 +325,7 @@
       <c r="C2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
@@ -263,7 +334,7 @@
       <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <f aca="false">SUM(B2:F2)</f>
         <v>9</v>
       </c>
@@ -278,7 +349,7 @@
       <c r="C3" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="n">
@@ -287,7 +358,7 @@
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <f aca="false">SUM(B3:F3)</f>
         <v>19</v>
       </c>
@@ -302,7 +373,7 @@
       <c r="C4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="0" t="n">
@@ -311,7 +382,7 @@
       <c r="F4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">SUM(B4:F4)</f>
         <v>23</v>
       </c>
@@ -326,7 +397,7 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="0" t="n">
@@ -335,7 +406,7 @@
       <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <f aca="false">SUM(B5:F5)</f>
         <v>10</v>
       </c>
@@ -350,8 +421,8 @@
       <c r="C6" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
+      <c r="D6" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>14</v>
@@ -359,9 +430,9 @@
       <c r="F6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <f aca="false">SUM(B6:F6)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -374,7 +445,7 @@
       <c r="C7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="0" t="n">
@@ -383,7 +454,7 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">SUM(B7:F7)</f>
         <v>9</v>
       </c>
@@ -407,7 +478,7 @@
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <f aca="false">SUM(B8:F8)</f>
         <v>3</v>
       </c>
@@ -422,8 +493,8 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
+      <c r="D9" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>12</v>
@@ -431,9 +502,9 @@
       <c r="F9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">SUM(B9:F9)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -446,8 +517,8 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1.5</v>
+      <c r="D10" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>10</v>
@@ -455,9 +526,9 @@
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <f aca="false">SUM(B10:F10)</f>
-        <v>23.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -470,8 +541,8 @@
       <c r="C11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1.5</v>
+      <c r="D11" s="2" t="n">
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10</v>
@@ -479,9 +550,9 @@
       <c r="F11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <f aca="false">SUM(B11:F11)</f>
-        <v>26.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -491,8 +562,8 @@
       <c r="B12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>7</v>
+      <c r="C12" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>6</v>
@@ -503,9 +574,9 @@
       <c r="F12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">SUM(B12:F12)</f>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -518,7 +589,7 @@
       <c r="C13" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="n">
@@ -527,7 +598,7 @@
       <c r="F13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <f aca="false">SUM(B13:F13)</f>
         <v>12</v>
       </c>
@@ -542,7 +613,7 @@
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E14" s="0" t="n">
@@ -551,7 +622,7 @@
       <c r="F14" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="3" t="n">
         <f aca="false">SUM(B14:F14)</f>
         <v>27</v>
       </c>
@@ -566,8 +637,8 @@
       <c r="C15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>3</v>
+      <c r="D15" s="2" t="n">
+        <v>8</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>12</v>
@@ -575,9 +646,9 @@
       <c r="F15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <f aca="false">SUM(B15:F15)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -593,15 +664,15 @@
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
+      <c r="E16" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <f aca="false">SUM(B16:F16)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -614,8 +685,8 @@
       <c r="C17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
+      <c r="D17" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>11</v>
@@ -623,9 +694,9 @@
       <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <f aca="false">SUM(B17:F17)</f>
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -638,7 +709,7 @@
       <c r="C18" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="0" t="n">
@@ -647,7 +718,7 @@
       <c r="F18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <f aca="false">SUM(B18:F18)</f>
         <v>17</v>
       </c>
@@ -662,7 +733,7 @@
       <c r="C19" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="n">
@@ -671,7 +742,7 @@
       <c r="F19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <f aca="false">SUM(B19:F19)</f>
         <v>24</v>
       </c>
@@ -686,7 +757,7 @@
       <c r="C20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="n">
@@ -695,7 +766,7 @@
       <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <f aca="false">SUM(B20:F20)</f>
         <v>15</v>
       </c>
@@ -710,8 +781,8 @@
       <c r="C21" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1.5</v>
+      <c r="D21" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>2</v>
@@ -719,9 +790,9 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="3" t="n">
         <f aca="false">SUM(B21:F21)</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="11.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -734,8 +805,8 @@
       <c r="C22" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
+      <c r="D22" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>5</v>
@@ -743,9 +814,9 @@
       <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">SUM(B22:F22)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
